--- a/ai modules (2).xlsx
+++ b/ai modules (2).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>1. Explore AI basics</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>https://share.articulate.com/Bh76w2pleoYOz-Te5B4H9</t>
-  </si>
-  <si>
-    <t>5. Explore AI for All</t>
-  </si>
-  <si>
-    <t>https://share.articulate.com/z6zN6Y0-2Js19LkvrJ7QQ</t>
   </si>
   <si>
     <t xml:space="preserve">6. Describe the concepts of cybersecurity </t>
@@ -73,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,12 +477,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="G5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -510,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -521,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -532,37 +526,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -571,16 +559,14 @@
     <hyperlink ref="B2" r:id="rId2" display="https://learn.microsoft.com/en-us/training/modules/explore-generative-ai/"/>
     <hyperlink ref="B3" r:id="rId3" display="https://learn.microsoft.com/en-us/training/modules/explore-internet-search-beyond/"/>
     <hyperlink ref="B4" r:id="rId4" display="https://learn.microsoft.com/en-us/training/modules/responsible-ai/"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://learn.microsoft.com/en-us/training/modules/explore-ai-for-all/"/>
-    <hyperlink ref="B6" r:id="rId6" display="https://learn.microsoft.com/en-us/training/paths/describe-basic-concepts-of-cybersecurity/"/>
-    <hyperlink ref="B7" r:id="rId7" display="https://learn.microsoft.com/en-us/training/paths/ai-security-fundamentals/"/>
-    <hyperlink ref="C1" r:id="rId8"/>
-    <hyperlink ref="C2" r:id="rId9"/>
-    <hyperlink ref="C3" r:id="rId10"/>
-    <hyperlink ref="C4" r:id="rId11"/>
-    <hyperlink ref="C5" r:id="rId12"/>
-    <hyperlink ref="C6" r:id="rId13"/>
-    <hyperlink ref="C7" r:id="rId14" display="https://share.articulate.com/fc9LKnz5xeESiGpJ4Tydt"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://learn.microsoft.com/en-us/training/paths/describe-basic-concepts-of-cybersecurity/"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://learn.microsoft.com/en-us/training/paths/ai-security-fundamentals/"/>
+    <hyperlink ref="C1" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId8"/>
+    <hyperlink ref="C3" r:id="rId9"/>
+    <hyperlink ref="C4" r:id="rId10"/>
+    <hyperlink ref="C6" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId12" display="https://share.articulate.com/fc9LKnz5xeESiGpJ4Tydt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
